--- a/contribution.xlsx
+++ b/contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhaotian/Desktop/Courses/Master/02223 Model-Based Systems Engineering/Multi-drones-controal-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA90A18-EE90-3A49-86BC-E4A6E6F505F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5AE8A-391C-9444-9966-CB64F9AC5830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{2484FD6F-C6A3-ED46-8173-DFDFB2B21270}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Contribution of Coding and Experment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>Conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matlab Experiment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,41 +473,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03224EBE-883F-0340-9628-6ED22361DB31}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -507,8 +517,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,57 +528,66 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>95</v>
-      </c>
-      <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="K3" s="1">
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contribution.xlsx
+++ b/contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhaotian/Desktop/Courses/Master/02223 Model-Based Systems Engineering/Multi-drones-controal-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C5AE8A-391C-9444-9966-CB64F9AC5830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAF533-88E0-A64A-9342-521F05752686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{2484FD6F-C6A3-ED46-8173-DFDFB2B21270}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -572,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>80</v>

--- a/contribution.xlsx
+++ b/contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhaotian/Desktop/Courses/Master/02223 Model-Based Systems Engineering/Multi-drones-controal-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAF533-88E0-A64A-9342-521F05752686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA42717-ACFF-0740-AEE8-557042B5A749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{2484FD6F-C6A3-ED46-8173-DFDFB2B21270}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Contribution of Coding and Experment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>Matlab Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03224EBE-883F-0340-9628-6ED22361DB31}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -489,17 +493,16 @@
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,76 +521,94 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>90</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="M3" s="1">
+      <c r="K4" s="1">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contribution.xlsx
+++ b/contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhaotian/Desktop/Courses/Master/02223 Model-Based Systems Engineering/Multi-drones-controal-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA42717-ACFF-0740-AEE8-557042B5A749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8964867-CD21-3F48-A8FA-E190A89E9D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{2484FD6F-C6A3-ED46-8173-DFDFB2B21270}"/>
   </bookViews>
@@ -480,19 +480,19 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -531,12 +531,27 @@
         <v>3</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -554,12 +569,8 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
@@ -572,15 +583,9 @@
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
@@ -603,12 +608,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contribution.xlsx
+++ b/contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhaotian/Desktop/Courses/Master/02223 Model-Based Systems Engineering/Multi-drones-controal-simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8964867-CD21-3F48-A8FA-E190A89E9D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3D25CA-EBF1-9C4D-B477-3F37EC4ECC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26820" xr2:uid="{2484FD6F-C6A3-ED46-8173-DFDFB2B21270}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>Contribution of Coding and Experment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,59 +49,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methodology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assumptions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trails on Matlab and Simulink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matlab Experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matyas</t>
+  </si>
+  <si>
     <t>s212645, Haotian Liu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contribution of report writing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Motivation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methodology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assumptions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trails on Matlab and Simulink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The structure of Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Simulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conclusion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python Experiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matlab Experiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>s222375, Hao Zhang</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>s222463, Weisen Yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s222504, Yi Zhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contribution of Coding and Experiment</t>
+  </si>
+  <si>
+    <t>s222877, Mátyás Dániel Csabai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90\%</t>
+  </si>
+  <si>
+    <t>10\%</t>
+  </si>
+  <si>
+    <t>40\%</t>
+  </si>
+  <si>
+    <t>s22250\%4, Yi Zhan</t>
+  </si>
+  <si>
+    <t>20\%</t>
+  </si>
+  <si>
+    <t>s2230\%49, Chandni Jaswal Sood</t>
+  </si>
+  <si>
+    <t>50\%</t>
+  </si>
+  <si>
+    <t>80\%</t>
+  </si>
+  <si>
+    <t>100\%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33\%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s223049, Chandni Jaswal Sood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s212645, Haotian Liu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,7 +211,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,148 +533,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03224EBE-883F-0340-9628-6ED22361DB31}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="17">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="34">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="51">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="17">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="34">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="68">
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="68">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="B27" s="3"/>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="K4" s="1">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
+      <c r="B28" s="3"/>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
